--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Fgfr4</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H2">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I2">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J2">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.343040621923993</v>
+        <v>0.4030655</v>
       </c>
       <c r="N2">
-        <v>0.343040621923993</v>
+        <v>0.8061309999999999</v>
       </c>
       <c r="O2">
-        <v>0.01217833549845951</v>
+        <v>0.01062191174620465</v>
       </c>
       <c r="P2">
-        <v>0.01217833549845951</v>
+        <v>0.01057308397011603</v>
       </c>
       <c r="Q2">
-        <v>0.1703529165132154</v>
+        <v>0.20872525231475</v>
       </c>
       <c r="R2">
-        <v>0.1703529165132154</v>
+        <v>0.834901009259</v>
       </c>
       <c r="S2">
-        <v>0.0007994803023492198</v>
+        <v>0.0006665440363105297</v>
       </c>
       <c r="T2">
-        <v>0.0007994803023492198</v>
+        <v>0.0006087987936093798</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,134 +587,134 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.496596920673028</v>
+        <v>0.5178445</v>
       </c>
       <c r="H3">
-        <v>0.496596920673028</v>
+        <v>1.035689</v>
       </c>
       <c r="I3">
-        <v>0.06564774820420652</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J3">
-        <v>0.06564774820420652</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>27.8250634648279</v>
+        <v>0.1070296666666667</v>
       </c>
       <c r="N3">
-        <v>27.8250634648279</v>
+        <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.9878216645015405</v>
+        <v>0.002820533321653765</v>
       </c>
       <c r="P3">
-        <v>0.9878216645015405</v>
+        <v>0.004211351453895939</v>
       </c>
       <c r="Q3">
-        <v>13.81784083416511</v>
+        <v>0.05542472422016668</v>
       </c>
       <c r="R3">
-        <v>13.81784083416511</v>
+        <v>0.332548345321</v>
       </c>
       <c r="S3">
-        <v>0.0648482679018573</v>
+        <v>0.0001769935308900677</v>
       </c>
       <c r="T3">
-        <v>0.0648482679018573</v>
+        <v>0.0002424898631131196</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.916424667182295</v>
+        <v>0.5178445</v>
       </c>
       <c r="H4">
-        <v>0.916424667182295</v>
+        <v>1.035689</v>
       </c>
       <c r="I4">
-        <v>0.1211469771455122</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J4">
-        <v>0.1211469771455122</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.343040621923993</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>0.343040621923993</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.01217833549845951</v>
+        <v>0.001647806569754003</v>
       </c>
       <c r="P4">
-        <v>0.01217833549845951</v>
+        <v>0.002460347672547249</v>
       </c>
       <c r="Q4">
-        <v>0.3143708877767027</v>
+        <v>0.03238012612566667</v>
       </c>
       <c r="R4">
-        <v>0.3143708877767027</v>
+        <v>0.194280756754</v>
       </c>
       <c r="S4">
-        <v>0.001475368532302254</v>
+        <v>0.0001034028212911194</v>
       </c>
       <c r="T4">
-        <v>0.001475368532302254</v>
+        <v>0.0001416669629353159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -720,173 +723,1041 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.916424667182295</v>
+        <v>0.5178445</v>
       </c>
       <c r="H5">
-        <v>0.916424667182295</v>
+        <v>1.035689</v>
       </c>
       <c r="I5">
-        <v>0.1211469771455122</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J5">
-        <v>0.1211469771455122</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>27.8250634648279</v>
+        <v>0.1809256666666667</v>
       </c>
       <c r="N5">
-        <v>27.8250634648279</v>
+        <v>0.542777</v>
       </c>
       <c r="O5">
-        <v>0.9878216645015405</v>
+        <v>0.004767901157396439</v>
       </c>
       <c r="P5">
-        <v>0.9878216645015405</v>
+        <v>0.007118975449458798</v>
       </c>
       <c r="Q5">
-        <v>25.49957452508114</v>
+        <v>0.09369136139216666</v>
       </c>
       <c r="R5">
-        <v>25.49957452508114</v>
+        <v>0.562148168353</v>
       </c>
       <c r="S5">
-        <v>0.11967160861321</v>
+        <v>0.0002991943595573758</v>
       </c>
       <c r="T5">
-        <v>0.11967160861321</v>
+        <v>0.0004099110228969217</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>6.15154740738719</v>
+        <v>0.5178445</v>
       </c>
       <c r="H6">
-        <v>6.15154740738719</v>
+        <v>1.035689</v>
       </c>
       <c r="I6">
-        <v>0.8132052746502813</v>
+        <v>0.06275179574417895</v>
       </c>
       <c r="J6">
-        <v>0.8132052746502813</v>
+        <v>0.05758005850800962</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.343040621923993</v>
+        <v>37.1930565</v>
       </c>
       <c r="N6">
-        <v>0.343040621923993</v>
+        <v>74.38611299999999</v>
       </c>
       <c r="O6">
-        <v>0.01217833549845951</v>
+        <v>0.9801418472049912</v>
       </c>
       <c r="P6">
-        <v>0.01217833549845951</v>
+        <v>0.9756362414539819</v>
       </c>
       <c r="Q6">
-        <v>2.110230648425028</v>
+        <v>19.26021974671425</v>
       </c>
       <c r="R6">
-        <v>2.110230648425028</v>
+        <v>77.040878986857</v>
       </c>
       <c r="S6">
-        <v>0.009903486663808036</v>
+        <v>0.06150566099612986</v>
       </c>
       <c r="T6">
-        <v>0.009903486663808036</v>
+        <v>0.05617719186545488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5275216666666668</v>
+      </c>
+      <c r="H7">
+        <v>1.582565</v>
+      </c>
+      <c r="I7">
+        <v>0.06392446357409517</v>
+      </c>
+      <c r="J7">
+        <v>0.08798412003287498</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4030655</v>
+      </c>
+      <c r="N7">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P7">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q7">
+        <v>0.2126257843358334</v>
+      </c>
+      <c r="R7">
+        <v>1.275754706015</v>
+      </c>
+      <c r="S7">
+        <v>0.0006790000105075132</v>
+      </c>
+      <c r="T7">
+        <v>0.0009302634891443554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5275216666666668</v>
+      </c>
+      <c r="H8">
+        <v>1.582565</v>
+      </c>
+      <c r="I8">
+        <v>0.06392446357409517</v>
+      </c>
+      <c r="J8">
+        <v>0.08798412003287498</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.321089</v>
+      </c>
+      <c r="O8">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P8">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q8">
+        <v>0.0564604681427778</v>
+      </c>
+      <c r="R8">
+        <v>0.5081442132850001</v>
+      </c>
+      <c r="S8">
+        <v>0.0001803010795795778</v>
+      </c>
+      <c r="T8">
+        <v>0.0003705320518202029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5275216666666668</v>
+      </c>
+      <c r="H9">
+        <v>1.582565</v>
+      </c>
+      <c r="I9">
+        <v>0.06392446357409517</v>
+      </c>
+      <c r="J9">
+        <v>0.08798412003287498</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N9">
+        <v>0.187586</v>
+      </c>
+      <c r="O9">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P9">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q9">
+        <v>0.03298522645444445</v>
+      </c>
+      <c r="R9">
+        <v>0.29686703809</v>
+      </c>
+      <c r="S9">
+        <v>0.0001053351510453945</v>
+      </c>
+      <c r="T9">
+        <v>0.0002164715249440017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5275216666666668</v>
+      </c>
+      <c r="H10">
+        <v>1.582565</v>
+      </c>
+      <c r="I10">
+        <v>0.06392446357409517</v>
+      </c>
+      <c r="J10">
+        <v>0.08798412003287498</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.542777</v>
+      </c>
+      <c r="O10">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P10">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q10">
+        <v>0.0954422092227778</v>
+      </c>
+      <c r="R10">
+        <v>0.8589798830050001</v>
+      </c>
+      <c r="S10">
+        <v>0.0003047855238608749</v>
+      </c>
+      <c r="T10">
+        <v>0.000626356790456273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5275216666666668</v>
+      </c>
+      <c r="H11">
+        <v>1.582565</v>
+      </c>
+      <c r="I11">
+        <v>0.06392446357409517</v>
+      </c>
+      <c r="J11">
+        <v>0.08798412003287498</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>37.1930565</v>
+      </c>
+      <c r="N11">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P11">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q11">
+        <v>19.6201431533075</v>
+      </c>
+      <c r="R11">
+        <v>117.720858919845</v>
+      </c>
+      <c r="S11">
+        <v>0.06265504180910182</v>
+      </c>
+      <c r="T11">
+        <v>0.08584049617651014</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="H7">
-        <v>6.15154740738719</v>
-      </c>
-      <c r="I7">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="J7">
-        <v>0.8132052746502813</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="N7">
-        <v>27.8250634648279</v>
-      </c>
-      <c r="O7">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="P7">
-        <v>0.9878216645015405</v>
-      </c>
-      <c r="Q7">
-        <v>171.1671970174461</v>
-      </c>
-      <c r="R7">
-        <v>171.1671970174461</v>
-      </c>
-      <c r="S7">
-        <v>0.8033017879864732</v>
-      </c>
-      <c r="T7">
-        <v>0.8033017879864732</v>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.864657</v>
+      </c>
+      <c r="I12">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J12">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.4030655</v>
+      </c>
+      <c r="N12">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P12">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q12">
+        <v>0.3848814686778333</v>
+      </c>
+      <c r="R12">
+        <v>2.309288812067</v>
+      </c>
+      <c r="S12">
+        <v>0.001229081985953449</v>
+      </c>
+      <c r="T12">
+        <v>0.001683902914586005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.864657</v>
+      </c>
+      <c r="I13">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J13">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.321089</v>
+      </c>
+      <c r="O13">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P13">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q13">
+        <v>0.1022010946081111</v>
+      </c>
+      <c r="R13">
+        <v>0.9198098514730001</v>
+      </c>
+      <c r="S13">
+        <v>0.0003263693748599233</v>
+      </c>
+      <c r="T13">
+        <v>0.0006707132003874135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H14">
+        <v>2.864657</v>
+      </c>
+      <c r="I14">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J14">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.187586</v>
+      </c>
+      <c r="O14">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P14">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q14">
+        <v>0.05970772755577778</v>
+      </c>
+      <c r="R14">
+        <v>0.5373695480020001</v>
+      </c>
+      <c r="S14">
+        <v>0.0001906708904773242</v>
+      </c>
+      <c r="T14">
+        <v>0.0003918427800636999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H15">
+        <v>2.864657</v>
+      </c>
+      <c r="I15">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J15">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.542777</v>
+      </c>
+      <c r="O15">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P15">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q15">
+        <v>0.1727633258321111</v>
+      </c>
+      <c r="R15">
+        <v>1.554869932489</v>
+      </c>
+      <c r="S15">
+        <v>0.0005517030797640048</v>
+      </c>
+      <c r="T15">
+        <v>0.001133790627416944</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9548856666666667</v>
+      </c>
+      <c r="H16">
+        <v>2.864657</v>
+      </c>
+      <c r="I16">
+        <v>0.1157119372972211</v>
+      </c>
+      <c r="J16">
+        <v>0.1592631742399304</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>37.1930565</v>
+      </c>
+      <c r="N16">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O16">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P16">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q16">
+        <v>35.5151165513735</v>
+      </c>
+      <c r="R16">
+        <v>213.090699308241</v>
+      </c>
+      <c r="S16">
+        <v>0.1134141119661664</v>
+      </c>
+      <c r="T16">
+        <v>0.1553829247174764</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>6.252014</v>
+      </c>
+      <c r="H17">
+        <v>12.504028</v>
+      </c>
+      <c r="I17">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J17">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4030655</v>
+      </c>
+      <c r="N17">
+        <v>0.8061309999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.01062191174620465</v>
+      </c>
+      <c r="P17">
+        <v>0.01057308397011603</v>
+      </c>
+      <c r="Q17">
+        <v>2.519971148917</v>
+      </c>
+      <c r="R17">
+        <v>10.079884595668</v>
+      </c>
+      <c r="S17">
+        <v>0.008047285713433163</v>
+      </c>
+      <c r="T17">
+        <v>0.007350118772776294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>6.252014</v>
+      </c>
+      <c r="H18">
+        <v>12.504028</v>
+      </c>
+      <c r="I18">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J18">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1070296666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.321089</v>
+      </c>
+      <c r="O18">
+        <v>0.002820533321653765</v>
+      </c>
+      <c r="P18">
+        <v>0.004211351453895939</v>
+      </c>
+      <c r="Q18">
+        <v>0.6691509744153333</v>
+      </c>
+      <c r="R18">
+        <v>4.014905846492</v>
+      </c>
+      <c r="S18">
+        <v>0.002136869336324196</v>
+      </c>
+      <c r="T18">
+        <v>0.002927616338575204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6.252014</v>
+      </c>
+      <c r="H19">
+        <v>12.504028</v>
+      </c>
+      <c r="I19">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J19">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.187586</v>
+      </c>
+      <c r="O19">
+        <v>0.001647806569754003</v>
+      </c>
+      <c r="P19">
+        <v>0.002460347672547249</v>
+      </c>
+      <c r="Q19">
+        <v>0.3909300994013333</v>
+      </c>
+      <c r="R19">
+        <v>2.345580596408</v>
+      </c>
+      <c r="S19">
+        <v>0.001248397706940165</v>
+      </c>
+      <c r="T19">
+        <v>0.001710366404604232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.252014</v>
+      </c>
+      <c r="H20">
+        <v>12.504028</v>
+      </c>
+      <c r="I20">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J20">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1809256666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.542777</v>
+      </c>
+      <c r="O20">
+        <v>0.004767901157396439</v>
+      </c>
+      <c r="P20">
+        <v>0.007118975449458798</v>
+      </c>
+      <c r="Q20">
+        <v>1.131149800959333</v>
+      </c>
+      <c r="R20">
+        <v>6.786898805756</v>
+      </c>
+      <c r="S20">
+        <v>0.003612218194214184</v>
+      </c>
+      <c r="T20">
+        <v>0.00494891700868866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.252014</v>
+      </c>
+      <c r="H21">
+        <v>12.504028</v>
+      </c>
+      <c r="I21">
+        <v>0.7576118033845048</v>
+      </c>
+      <c r="J21">
+        <v>0.695172647219185</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>37.1930565</v>
+      </c>
+      <c r="N21">
+        <v>74.38611299999999</v>
+      </c>
+      <c r="O21">
+        <v>0.9801418472049912</v>
+      </c>
+      <c r="P21">
+        <v>0.9756362414539819</v>
+      </c>
+      <c r="Q21">
+        <v>232.531509940791</v>
+      </c>
+      <c r="R21">
+        <v>930.1260397631639</v>
+      </c>
+      <c r="S21">
+        <v>0.7425670324335932</v>
+      </c>
+      <c r="T21">
+        <v>0.6782356286945406</v>
       </c>
     </row>
   </sheetData>
